--- a/output/API_upload_.xlsx
+++ b/output/API_upload_.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ibm-my.sharepoint.com/personal/wintee_lin_ibm_com/Documents/2025/Auto API/API_SPEC_EXTRACTOR/output/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_BE4E7AF6A6CD72CE8A160BCF5B5378C95E48A8BD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A08B281-5684-524D-8A87-D2E03AF4CF22}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="26880" windowHeight="14960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="18">
   <si>
     <t>Index</t>
   </si>
@@ -146,47 +140,16 @@
 }
 }</t>
   </si>
-  <si>
-    <t>{
-"body": {
-"header": {
-"trnNum": "LN221221130051000001",
-"trnCode": "30005121"
-},
-"data": {
-"custId": "B101063165",
-"cardNo": "431195100026286",
-"upgrade": "G",
-"newUserId": "LL0249",
-"newPIN": "LL1209",
-"effDt": "0119",
-"custBirthday": "20250101",
-"cvv": "219",
-"serviceCode": "",
-第14頁，共121頁 NVMP-BK_002-CUSTREL系統設計規格書_V1.99.docx
-資安等級: 內部
-解密日期: 0 年 0 月 0 日
-"email": "abc@email.com",
-"pin": "BB3165",
-"userId": "BB1010",
-"registerFlag": "Y",
-"passFlag": "1",
-"ipAddress": "1.1.1.1"
-}
-}
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -194,15 +157,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -241,35 +197,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -307,7 +252,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -341,7 +286,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -376,10 +320,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -552,22 +495,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.796875" customWidth="1"/>
-    <col min="2" max="2" width="32.796875" customWidth="1"/>
-    <col min="3" max="3" width="46.796875" customWidth="1"/>
-    <col min="4" max="4" width="10.796875" customWidth="1"/>
-    <col min="5" max="5" width="90.796875" customWidth="1"/>
-    <col min="6" max="6" width="12.796875" customWidth="1"/>
-    <col min="7" max="7" width="90.796875" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="90.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="90.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -593,7 +534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="409.6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -606,8 +547,8 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
+      <c r="E2" t="s">
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -616,7 +557,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="409.6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -629,8 +570,8 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
+      <c r="E3" t="s">
+        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -824,7 +765,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>